--- a/target/classes/com/qa/keyword/scenarios/Application_keywords_scenarios.xlsx
+++ b/target/classes/com/qa/keyword/scenarios/Application_keywords_scenarios.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/KeywordDrivenHubSpot/src/main/java/com/qa/hs/keyword/scenarios/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5DD9F0BA-8481-4C4F-9DA4-3A85BD473A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="2" r:id="rId1"/>
-    <sheet name="signup" sheetId="1" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="SearchAndSelectItem" sheetId="1" r:id="rId2"/>
+    <sheet name="CheckOutItem" sheetId="3" r:id="rId3"/>
+    <sheet name="Logout" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:B7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,62 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>action</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sendkeys</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>naveenanimation20@gmail.com</t>
-  </si>
-  <si>
     <t>test step</t>
   </si>
   <si>
-    <t>enter email address</t>
-  </si>
-  <si>
     <t>enter password</t>
   </si>
   <si>
     <t>click on login Button</t>
   </si>
   <si>
-    <t>close browser</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>open browser</t>
-  </si>
-  <si>
-    <t>launch url</t>
-  </si>
-  <si>
-    <t>enter url</t>
-  </si>
-  <si>
-    <t>http://app.hubspot.com/login</t>
-  </si>
-  <si>
-    <t>verify sign up link</t>
-  </si>
-  <si>
     <t>locatorType</t>
   </si>
   <si>
@@ -102,46 +62,226 @@
     <t>loginBtn</t>
   </si>
   <si>
-    <t>Sign up</t>
-  </si>
-  <si>
-    <t>linkText</t>
-  </si>
-  <si>
-    <t>verify home page header</t>
-  </si>
-  <si>
-    <t>get home page header text</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//h1[text()='Sales Dashboard']</t>
-  </si>
-  <si>
-    <t>isDisplayed</t>
-  </si>
-  <si>
-    <t>className</t>
-  </si>
-  <si>
-    <t>private-page__title</t>
-  </si>
-  <si>
-    <t>getText</t>
-  </si>
-  <si>
-    <t>Sales Dashboard</t>
-  </si>
-  <si>
-    <t>firefox</t>
+    <t>open Application</t>
+  </si>
+  <si>
+    <t>Pavan@123</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Click on hamburgerMenu</t>
+  </si>
+  <si>
+    <t>click on Signin</t>
+  </si>
+  <si>
+    <t>Validate Login Screen</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter email or Phone </t>
+  </si>
+  <si>
+    <t>Click on continue</t>
+  </si>
+  <si>
+    <t>Validate username</t>
+  </si>
+  <si>
+    <t>Verify passwordScreen</t>
+  </si>
+  <si>
+    <t>verify home screen</t>
+  </si>
+  <si>
+    <t>hamburgermenu</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>loginscreen</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t>pwdscreen</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>OpenApplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application will be open and by default in home page without login </t>
+  </si>
+  <si>
+    <t>Click on hamburgermenu in order to login</t>
+  </si>
+  <si>
+    <t>Click on signin button will go to login screen</t>
+  </si>
+  <si>
+    <t>Errormessage</t>
+  </si>
+  <si>
+    <t>Forgot password?</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Click on search box</t>
+  </si>
+  <si>
+    <t>Enter Search Item</t>
+  </si>
+  <si>
+    <t>Samsung 65 inch TV</t>
+  </si>
+  <si>
+    <t>submit the search</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Select the required item from the List</t>
+  </si>
+  <si>
+    <t>Compare the brand</t>
+  </si>
+  <si>
+    <t>PickonefromtheList</t>
+  </si>
+  <si>
+    <t>Compare the size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 inch </t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Go to the cart</t>
+  </si>
+  <si>
+    <t>Go to cart</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>Check for the Item</t>
+  </si>
+  <si>
+    <t>Proceed to Buy</t>
+  </si>
+  <si>
+    <t>Select the address</t>
+  </si>
+  <si>
+    <t>confirm the order</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>65 Inch</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Not handling here due to time constarint</t>
+  </si>
+  <si>
+    <t>Check whether the added item present or not</t>
+  </si>
+  <si>
+    <t>click on procced button to proceed</t>
+  </si>
+  <si>
+    <t>Select the existing address</t>
+  </si>
+  <si>
+    <t>conform the order</t>
+  </si>
+  <si>
+    <t>Itemdescription</t>
+  </si>
+  <si>
+    <t>ItemBrand</t>
+  </si>
+  <si>
+    <t>Enter the text to search</t>
+  </si>
+  <si>
+    <t>inputdata</t>
+  </si>
+  <si>
+    <t>select the PaymentId</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>EnterCVV</t>
+  </si>
+  <si>
+    <t>Cvv</t>
+  </si>
+  <si>
+    <t>Submit the Payment</t>
+  </si>
+  <si>
+    <t>payBtn</t>
+  </si>
+  <si>
+    <t>ConfirmBtn</t>
+  </si>
+  <si>
+    <t>//adroid view[text()='Home']</t>
+  </si>
+  <si>
+    <t>HambrgIcon</t>
+  </si>
+  <si>
+    <t>Click on Signout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -225,13 +365,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -246,6 +385,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,289 +655,664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9113241221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{30096936-43A5-41A9-BF2A-3C8CA9ED6C3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="220" zoomScaleNormal="183" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAA4ED7-5B92-46EE-BC9B-A977DD6BE0D2}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="220" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3095B1E6-4BEE-4DD3-AD2D-ECDB08EB49D8}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="220" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>